--- a/patternGen/PROTO3.xlsx
+++ b/patternGen/PROTO3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="16220" tabRatio="500"/>
+    <workbookView xWindow="-35500" yWindow="580" windowWidth="30940" windowHeight="15780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -31,6 +31,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -53,14 +69,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="27">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AZ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:52">
       <c r="A1">
         <v>4</v>
       </c>
@@ -418,117 +486,165 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:52">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="AK2">
+        <v>17</v>
+      </c>
+      <c r="AL2">
+        <v>18</v>
+      </c>
+      <c r="AM2">
+        <v>19</v>
+      </c>
+      <c r="AN2">
+        <v>20</v>
+      </c>
+      <c r="AO2">
+        <v>21</v>
+      </c>
+      <c r="AP2">
+        <v>22</v>
+      </c>
+      <c r="AQ2">
+        <v>23</v>
+      </c>
+      <c r="AR2">
+        <v>24</v>
+      </c>
+      <c r="AS2">
+        <v>25</v>
+      </c>
+      <c r="AT2">
+        <v>26</v>
+      </c>
+      <c r="AU2">
+        <v>27</v>
+      </c>
+      <c r="AV2">
+        <v>28</v>
+      </c>
+      <c r="AW2">
+        <v>29</v>
+      </c>
+      <c r="AX2">
+        <v>30</v>
+      </c>
+      <c r="AY2">
+        <v>31</v>
+      </c>
+      <c r="AZ2">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:52">
       <c r="A3">
         <v>1</v>
       </c>
@@ -590,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -637,8 +753,56 @@
       <c r="AJ3">
         <v>0</v>
       </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:52">
       <c r="A4">
         <v>1</v>
       </c>
@@ -651,29 +815,29 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -706,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -747,8 +911,56 @@
       <c r="AJ4">
         <v>0</v>
       </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:52">
       <c r="A5">
         <v>1</v>
       </c>
@@ -761,29 +973,29 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -822,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -857,8 +1069,56 @@
       <c r="AJ5">
         <v>0</v>
       </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:52">
       <c r="A6">
         <v>1</v>
       </c>
@@ -871,17 +1131,17 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -895,17 +1155,17 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -938,16 +1198,16 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -967,8 +1227,56 @@
       <c r="AJ6">
         <v>0</v>
       </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:52">
       <c r="A7">
         <v>1</v>
       </c>
@@ -993,29 +1301,29 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1054,16 +1362,16 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1077,8 +1385,56 @@
       <c r="AJ7">
         <v>0</v>
       </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:52">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1103,17 +1459,17 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1127,17 +1483,17 @@
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1</v>
-      </c>
-      <c r="S8" s="1">
-        <v>1</v>
-      </c>
-      <c r="T8" s="1">
-        <v>1</v>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1170,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1187,8 +1543,56 @@
       <c r="AJ8">
         <v>0</v>
       </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:52">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1213,17 +1617,17 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1237,17 +1641,17 @@
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
-      <c r="R9" s="1">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1">
-        <v>1</v>
-      </c>
-      <c r="T9" s="1">
-        <v>1</v>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1286,20 +1690,1491 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>1</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="AZ18">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/patternGen/PROTO3.xlsx
+++ b/patternGen/PROTO3.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:AZ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -474,7 +474,7 @@
         <v>16</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D1">
         <v>3</v>

--- a/patternGen/PROTO3.xlsx
+++ b/patternGen/PROTO3.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:AZ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/patternGen/PROTO3.xlsx
+++ b/patternGen/PROTO3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-35500" yWindow="580" windowWidth="30940" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="-35500" yWindow="4180" windowWidth="30940" windowHeight="15780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:AZ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/patternGen/PROTO3.xlsx
+++ b/patternGen/PROTO3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-35500" yWindow="4180" windowWidth="30940" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:AZ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
